--- a/competitive-data-science-final-project/experiment_result.xlsx
+++ b/competitive-data-science-final-project/experiment_result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desca\Documents\GitHub\kaggle-solution\competitive-data-science-final-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3CED9FA1-78EC-4678-BB3A-9AE7FDE95945}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{06D90E98-EF7E-4E01-BF97-BBA8A0774627}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="9800" activeTab="2" xr2:uid="{110610AC-7657-4A29-8901-E492387803D1}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="TODO" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Single Model'!$A$1:$L$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Single Model'!$A$1:$L$97</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="128">
   <si>
     <t>Validation Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -442,17 +442,10 @@
     <t>23min 20s</t>
   </si>
   <si>
-    <t>ing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>39min 10s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>item name, category name(translated in discussion)</t>
-  </si>
-  <si>
     <t>Check one hot encoding and label encoding</t>
   </si>
   <si>
@@ -460,11 +453,70 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>elaborate valdiation scheme not only using 33 to valdiate(how about 5 folds moving window?) =&gt; 계산 시간이 너무 많이 걸릴거같은데..ㅠㅠ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">add feature(season?) 해볼까.. </t>
+    <t>Pipeline 만들어보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h 18min 24s</t>
+  </si>
+  <si>
+    <t>desktop(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ot-sic?-sm?-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>but 실수해서 sum에 모두 0을 집어 넣음 category data도 망침 =&gt; 이제부터 잘 확인하고 하자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58.1 s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6min 50s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desktop(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1min 54s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meta cat(6가지) 넣기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Season(1월-3월, 4-6월, 7-9월  10-12월) feautre 추가 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price feautre 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scaler 이용해보기 - boosting 트리에 도움 된다는 얘기를 들은거 같음..?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ensemble 내용 정리해보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 40min 15s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36min 21s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=&gt; FEATURE 수 줄이기(중요도에서 떨어지는거 버리기, 랜덤포레스트에서. 또는 ../</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -866,11 +918,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B683405E-2C0F-415E-8799-3E87C229D8BE}">
-  <dimension ref="A1:L93"/>
+  <dimension ref="A1:L99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C59" sqref="C59"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1137,12 +1189,14 @@
         <v>62</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>118</v>
+      </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1151,20 +1205,22 @@
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A12" s="4">
-        <v>1.0467</v>
-      </c>
+      <c r="A12" s="4"/>
       <c r="B12" s="4">
-        <v>0.91216194924299998</v>
-      </c>
-      <c r="C12" s="4"/>
+        <v>0.89983426610180595</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="D12" s="4" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="4"/>
+        <v>59</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>118</v>
+      </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -1173,15 +1229,15 @@
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A13" s="4"/>
+      <c r="A13" s="4">
+        <v>1.0467</v>
+      </c>
       <c r="B13" s="4">
-        <v>0.91242207741000003</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>47</v>
-      </c>
+        <v>0.91216194924299998</v>
+      </c>
+      <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>3</v>
@@ -1197,13 +1253,13 @@
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="4"/>
       <c r="B14" s="4">
-        <v>0.91010687839899995</v>
+        <v>0.91242207741000003</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>3</v>
@@ -1219,13 +1275,13 @@
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="4"/>
       <c r="B15" s="4">
-        <v>0.90829862339699996</v>
+        <v>0.91010687839899995</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>3</v>
@@ -1241,13 +1297,13 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="4"/>
       <c r="B16" s="4">
-        <v>0.91894770924299995</v>
+        <v>0.90829862339699996</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>3</v>
@@ -1261,17 +1317,15 @@
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A17" s="4">
-        <v>1.1273</v>
-      </c>
+      <c r="A17" s="4"/>
       <c r="B17" s="4">
-        <v>0.99750444355500001</v>
+        <v>0.91894770924299995</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>3</v>
@@ -1285,15 +1339,17 @@
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A18" s="4"/>
+      <c r="A18" s="4">
+        <v>1.1273</v>
+      </c>
       <c r="B18" s="4">
-        <v>0.98603652529800001</v>
+        <v>0.99750444355500001</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>3</v>
@@ -1309,13 +1365,13 @@
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="4"/>
       <c r="B19" s="4">
-        <v>0.99707153341365495</v>
+        <v>0.98603652529800001</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>3</v>
@@ -1331,11 +1387,13 @@
     <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="4"/>
       <c r="B20" s="4">
-        <v>1.10639082140417</v>
-      </c>
-      <c r="C20" s="4"/>
+        <v>0.99707153341365495</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="D20" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>3</v>
@@ -1350,17 +1408,15 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="4"/>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>1.10639082140417</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -1372,70 +1428,60 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="4"/>
-      <c r="B22" s="4">
-        <v>0.98094078264899998</v>
-      </c>
-      <c r="C22" s="4"/>
+      <c r="B22" s="5">
+        <v>1.10639082140417</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="D22" s="4" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H22" s="4">
-        <v>10</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J22" s="4">
-        <v>5</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="4"/>
-      <c r="B23" s="4">
-        <v>0.90741624605399995</v>
+      <c r="B23" s="5">
+        <v>0.99707153801154402</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4" t="s">
-        <v>52</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G23" s="4"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J23" s="4">
-        <v>20</v>
-      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="4"/>
       <c r="B24" s="4">
-        <v>0.90761496897399996</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>55</v>
-      </c>
+        <v>0.98094078264899998</v>
+      </c>
+      <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>20</v>
@@ -1444,12 +1490,14 @@
       <c r="G24" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H24" s="4"/>
+      <c r="H24" s="4">
+        <v>10</v>
+      </c>
       <c r="I24" s="4" t="s">
         <v>53</v>
       </c>
       <c r="J24" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
@@ -1457,13 +1505,13 @@
     <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="4">
-        <v>0.90150152509299997</v>
+        <v>0.90741624605399995</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>20</v>
@@ -1485,13 +1533,13 @@
     <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="4"/>
       <c r="B26" s="4">
-        <v>0.88658519688600002</v>
+        <v>0.90761496897399996</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>20</v>
@@ -1513,13 +1561,13 @@
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="4"/>
       <c r="B27" s="4">
-        <v>0.88313823025100002</v>
+        <v>0.90150152509299997</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>20</v>
@@ -1528,76 +1576,84 @@
       <c r="G27" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H27" s="4">
-        <v>50</v>
-      </c>
+      <c r="H27" s="4"/>
       <c r="I27" s="4" t="s">
         <v>53</v>
       </c>
       <c r="J27" s="4">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A28" s="4">
-        <v>1.02475</v>
-      </c>
+      <c r="A28" s="4"/>
       <c r="B28" s="4">
-        <v>0.89309800061099998</v>
-      </c>
-      <c r="C28" s="4"/>
+        <v>0.88658519688600002</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="D28" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="I28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J28" s="4">
+        <v>20</v>
+      </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="4"/>
       <c r="B29" s="4">
-        <v>0.89404424438600005</v>
+        <v>0.88313823025100002</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="H29" s="4">
+        <v>50</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J29" s="4">
+        <v>13</v>
+      </c>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A30" s="4"/>
+      <c r="A30" s="4">
+        <v>1.02475</v>
+      </c>
       <c r="B30" s="4">
-        <v>0.89382240900900001</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>67</v>
-      </c>
+        <v>0.89309800061099998</v>
+      </c>
+      <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>4</v>
@@ -1613,17 +1669,15 @@
       <c r="L30" s="4"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A31" s="4">
-        <v>1.0186500000000001</v>
-      </c>
+      <c r="A31" s="4"/>
       <c r="B31" s="4">
-        <v>0.88624295087399996</v>
+        <v>0.89404424438600005</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>4</v>
@@ -1639,17 +1693,15 @@
       <c r="L31" s="4"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A32" s="4">
-        <v>1.0120100000000001</v>
-      </c>
+      <c r="A32" s="4"/>
       <c r="B32" s="4">
-        <v>0.87875613368399996</v>
+        <v>0.89382240900900001</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>4</v>
@@ -1666,16 +1718,16 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33" s="4">
-        <v>1.01532</v>
+        <v>1.0186500000000001</v>
       </c>
       <c r="B33" s="4">
-        <v>0.87819175989599996</v>
+        <v>0.88624295087399996</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>4</v>
@@ -1692,16 +1744,16 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34" s="4">
-        <v>1.0126200000000001</v>
+        <v>1.0120100000000001</v>
       </c>
       <c r="B34" s="4">
-        <v>0.875355556599</v>
+        <v>0.87875613368399996</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>4</v>
@@ -1718,16 +1770,16 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35" s="4">
-        <v>1.0125500000000001</v>
+        <v>1.01532</v>
       </c>
       <c r="B35" s="4">
-        <v>0.87677772780499996</v>
+        <v>0.87819175989599996</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>4</v>
@@ -1743,15 +1795,17 @@
       <c r="L35" s="4"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A36" s="4"/>
+      <c r="A36" s="4">
+        <v>1.0126200000000001</v>
+      </c>
       <c r="B36" s="4">
-        <v>0.87840246164900004</v>
+        <v>0.875355556599</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>34</v>
+        <v>76</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>4</v>
@@ -1767,15 +1821,17 @@
       <c r="L36" s="4"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A37" s="4"/>
+      <c r="A37" s="4">
+        <v>1.0125500000000001</v>
+      </c>
       <c r="B37" s="4">
-        <v>0.87621119026675498</v>
+        <v>0.87677772780499996</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>35</v>
+        <v>77</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>4</v>
@@ -1793,19 +1849,21 @@
     <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38" s="4"/>
       <c r="B38" s="4">
-        <v>0.877742166791878</v>
+        <v>0.87840246164900004</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
+      <c r="G38" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
@@ -1815,21 +1873,21 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39" s="4"/>
       <c r="B39" s="4">
-        <v>0.88674067221504804</v>
+        <v>0.87621119026675498</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
@@ -1839,20 +1897,18 @@
     <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40" s="4"/>
       <c r="B40" s="4">
-        <v>0.87608074968348504</v>
+        <v>0.877742166791878</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
@@ -1861,125 +1917,105 @@
       <c r="L40" s="4"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A41" s="4">
-        <v>1.00275</v>
-      </c>
+      <c r="A41" s="4"/>
       <c r="B41" s="4">
-        <v>0.87254745</v>
+        <v>0.88674067221504804</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H41" s="4">
-        <v>10</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="J41" s="4">
-        <v>0.03</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42" s="4"/>
       <c r="B42" s="4">
-        <v>0.87569755000000005</v>
+        <v>0.87608074968348504</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G42" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H42" s="4">
-        <v>10</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="J42" s="4">
-        <v>0.03</v>
-      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A43" s="4" t="s">
-        <v>108</v>
-      </c>
+      <c r="A43" s="4"/>
       <c r="B43" s="4">
-        <v>0.87098450000000005</v>
+        <v>0.88672815992884502</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H43" s="4">
-        <v>10</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="J43" s="4">
-        <v>0.03</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A44" s="4"/>
+      <c r="A44" s="4">
+        <v>1.00275</v>
+      </c>
       <c r="B44" s="4">
-        <v>0.98089349800699999</v>
-      </c>
-      <c r="C44" s="4"/>
+        <v>0.87254745</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="D44" s="4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H44" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="H44" s="4">
+        <v>10</v>
+      </c>
       <c r="I44" s="4" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="J44" s="4">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
@@ -1987,55 +2023,65 @@
     <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A45" s="4"/>
       <c r="B45" s="4">
-        <v>0.90359447357300005</v>
+        <v>0.87569755000000005</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="G45" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H45" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="H45" s="4">
+        <v>10</v>
+      </c>
       <c r="I45" s="4" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="J45" s="4">
-        <v>10</v>
+        <v>0.03</v>
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A46" s="4"/>
+      <c r="A46" s="4">
+        <v>1.00444</v>
+      </c>
       <c r="B46" s="4">
-        <v>0.90654509225699997</v>
+        <v>0.87098450000000005</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="G46" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H46" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="H46" s="4">
+        <v>10</v>
+      </c>
       <c r="I46" s="4" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="J46" s="4">
-        <v>10</v>
+        <v>0.03</v>
       </c>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
@@ -2043,27 +2089,31 @@
     <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A47" s="4"/>
       <c r="B47" s="4">
-        <v>0.90493170008500001</v>
+        <v>0.87428755000000002</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="G47" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H47" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="H47" s="4">
+        <v>10</v>
+      </c>
       <c r="I47" s="4" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="J47" s="4">
-        <v>10</v>
+        <v>0.03</v>
       </c>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
@@ -2071,13 +2121,11 @@
     <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A48" s="4"/>
       <c r="B48" s="4">
-        <v>0.900006389736</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>97</v>
-      </c>
+        <v>0.98089349800699999</v>
+      </c>
+      <c r="C48" s="4"/>
       <c r="D48" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>5</v>
@@ -2086,14 +2134,12 @@
       <c r="G48" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H48" s="4">
-        <v>5</v>
-      </c>
+      <c r="H48" s="4"/>
       <c r="I48" s="4" t="s">
         <v>53</v>
       </c>
       <c r="J48" s="4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
@@ -2101,13 +2147,13 @@
     <row r="49" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A49" s="4"/>
       <c r="B49" s="4">
-        <v>0.88455883004299996</v>
+        <v>0.90359447357300005</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>5</v>
@@ -2116,9 +2162,7 @@
       <c r="G49" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H49" s="4">
-        <v>5</v>
-      </c>
+      <c r="H49" s="4"/>
       <c r="I49" s="4" t="s">
         <v>53</v>
       </c>
@@ -2131,13 +2175,13 @@
     <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50" s="4"/>
       <c r="B50" s="4">
-        <v>0.88063063790100005</v>
+        <v>0.90654509225699997</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>5</v>
@@ -2146,14 +2190,12 @@
       <c r="G50" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H50" s="4">
-        <v>50</v>
-      </c>
+      <c r="H50" s="4"/>
       <c r="I50" s="4" t="s">
         <v>53</v>
       </c>
       <c r="J50" s="4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
@@ -2161,13 +2203,13 @@
     <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51" s="4"/>
       <c r="B51" s="4">
-        <v>0.88098045867200003</v>
+        <v>0.90493170008500001</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>5</v>
@@ -2176,14 +2218,12 @@
       <c r="G51" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H51" s="4">
-        <v>50</v>
-      </c>
+      <c r="H51" s="4"/>
       <c r="I51" s="4" t="s">
         <v>53</v>
       </c>
       <c r="J51" s="4">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
@@ -2191,13 +2231,13 @@
     <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52" s="4"/>
       <c r="B52" s="4">
-        <v>0.88076892321099998</v>
+        <v>0.900006389736</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>5</v>
@@ -2207,13 +2247,13 @@
         <v>52</v>
       </c>
       <c r="H52" s="4">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>53</v>
       </c>
       <c r="J52" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
@@ -2221,10 +2261,10 @@
     <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A53" s="4"/>
       <c r="B53" s="4">
-        <v>0.88124621663500002</v>
+        <v>0.88455883004299996</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>33</v>
@@ -2237,13 +2277,13 @@
         <v>52</v>
       </c>
       <c r="H53" s="4">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>53</v>
       </c>
       <c r="J53" s="4">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
@@ -2251,10 +2291,10 @@
     <row r="54" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A54" s="4"/>
       <c r="B54" s="4">
-        <v>1.08458987675</v>
+        <v>0.88063063790100005</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>33</v>
@@ -2267,25 +2307,27 @@
         <v>52</v>
       </c>
       <c r="H54" s="4">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J54" s="4"/>
+      <c r="J54" s="4">
+        <v>13</v>
+      </c>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A55" s="4"/>
       <c r="B55" s="4">
-        <v>0.88826390727799998</v>
+        <v>0.88098045867200003</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>5</v>
@@ -2295,144 +2337,141 @@
         <v>52</v>
       </c>
       <c r="H55" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>53</v>
       </c>
       <c r="J55" s="4">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="6">
-        <v>0.99551999999999996</v>
-      </c>
-      <c r="B56" s="6">
-        <v>0.87341501332816995</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H56" s="6">
-        <v>20</v>
-      </c>
-      <c r="I56" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J56" s="6">
-        <v>13</v>
-      </c>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4">
+        <v>0.88076892321099998</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H56" s="4">
+        <v>50</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J56" s="4">
+        <v>15</v>
+      </c>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A57" s="4"/>
       <c r="B57" s="4">
-        <v>0.88347368981974805</v>
+        <v>0.88124621663500002</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F57" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="F57" s="4"/>
       <c r="G57" s="4" t="s">
         <v>52</v>
       </c>
       <c r="H57" s="4">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>53</v>
       </c>
       <c r="J57" s="4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A58" s="4" t="s">
-        <v>108</v>
-      </c>
+      <c r="A58" s="4"/>
       <c r="B58" s="4">
-        <v>0.87455486851514297</v>
+        <v>1.08458987675</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F58" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="F58" s="4"/>
       <c r="G58" s="4" t="s">
         <v>52</v>
       </c>
       <c r="H58" s="4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J58" s="4">
-        <v>13</v>
-      </c>
+      <c r="J58" s="4"/>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A59" s="4"/>
       <c r="B59" s="4">
-        <v>0.90736498257700005</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>33</v>
+        <v>0.88826390727799998</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="F59" s="4"/>
       <c r="G59" s="4" t="s">
         <v>52</v>
       </c>
       <c r="H59" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I59" s="4" t="s">
         <v>53</v>
       </c>
       <c r="J59" s="4">
-        <v>5</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B60" s="4">
-        <v>0.89459729871000004</v>
+        <v>0.90736498257700005</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>5</v>
@@ -2447,12 +2486,12 @@
         <v>53</v>
       </c>
       <c r="J60" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B61" s="4">
-        <v>0.89544302568199996</v>
+        <v>0.89459729871000004</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>32</v>
@@ -2470,12 +2509,12 @@
         <v>53</v>
       </c>
       <c r="J61" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B62" s="4">
-        <v>0.90793449597099996</v>
+        <v>0.89544302568199996</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>32</v>
@@ -2493,12 +2532,12 @@
         <v>53</v>
       </c>
       <c r="J62" s="4">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B63" s="4">
-        <v>0.92293180072299996</v>
+        <v>0.90793449597099996</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>32</v>
@@ -2516,12 +2555,12 @@
         <v>53</v>
       </c>
       <c r="J63" s="4">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B64" s="4">
-        <v>0.905816024133</v>
+        <v>0.92293180072299996</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>32</v>
@@ -2533,18 +2572,18 @@
         <v>52</v>
       </c>
       <c r="H64" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" s="4" t="s">
         <v>53</v>
       </c>
       <c r="J64" s="4">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B65" s="4">
-        <v>0.89237830044099997</v>
+        <v>0.905816024133</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>32</v>
@@ -2562,12 +2601,12 @@
         <v>53</v>
       </c>
       <c r="J65" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B66" s="4">
-        <v>0.891449670099</v>
+        <v>0.89237830044099997</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>32</v>
@@ -2585,12 +2624,12 @@
         <v>53</v>
       </c>
       <c r="J66" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B67" s="4">
-        <v>0.89494046597700005</v>
+        <v>0.891449670099</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>32</v>
@@ -2608,12 +2647,12 @@
         <v>53</v>
       </c>
       <c r="J67" s="4">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B68" s="4">
-        <v>0.90652402661599996</v>
+        <v>0.89494046597700005</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>32</v>
@@ -2631,12 +2670,12 @@
         <v>53</v>
       </c>
       <c r="J68" s="4">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B69" s="3">
-        <v>0.90480493064599998</v>
+      <c r="B69" s="4">
+        <v>0.90652402661599996</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>32</v>
@@ -2648,18 +2687,18 @@
         <v>52</v>
       </c>
       <c r="H69" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I69" s="4" t="s">
         <v>53</v>
       </c>
       <c r="J69" s="4">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B70" s="3">
-        <v>0.89157409954199995</v>
+        <v>0.90480493064599998</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>32</v>
@@ -2677,12 +2716,12 @@
         <v>53</v>
       </c>
       <c r="J70" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B71" s="3">
-        <v>0.88875103330799998</v>
+        <v>0.89157409954199995</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>32</v>
@@ -2700,12 +2739,12 @@
         <v>53</v>
       </c>
       <c r="J71" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B72" s="3">
-        <v>0.89049898720200005</v>
+        <v>0.88875103330799998</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>32</v>
@@ -2723,12 +2762,12 @@
         <v>53</v>
       </c>
       <c r="J72" s="4">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B73" s="3">
-        <v>0.89728100708199998</v>
+        <v>0.89049898720200005</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>32</v>
@@ -2746,12 +2785,12 @@
         <v>53</v>
       </c>
       <c r="J73" s="4">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B74" s="3">
-        <v>0.90442571138200001</v>
+        <v>0.89728100708199998</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>32</v>
@@ -2763,18 +2802,18 @@
         <v>52</v>
       </c>
       <c r="H74" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I74" s="4" t="s">
         <v>53</v>
       </c>
       <c r="J74" s="4">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B75" s="3">
-        <v>0.89102619480300005</v>
+        <v>0.90442571138200001</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>32</v>
@@ -2792,12 +2831,12 @@
         <v>53</v>
       </c>
       <c r="J75" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B76" s="3">
-        <v>0.88606686239499999</v>
+        <v>0.89102619480300005</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>32</v>
@@ -2815,12 +2854,12 @@
         <v>53</v>
       </c>
       <c r="J76" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B77" s="3">
-        <v>0.88705249782899998</v>
+        <v>0.88606686239499999</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>32</v>
@@ -2838,12 +2877,12 @@
         <v>53</v>
       </c>
       <c r="J77" s="4">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B78" s="3">
-        <v>0.89074694206799998</v>
+        <v>0.88705249782899998</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>32</v>
@@ -2861,12 +2900,12 @@
         <v>53</v>
       </c>
       <c r="J78" s="4">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B79" s="3">
-        <v>0.904218191743</v>
+        <v>0.89074694206799998</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>32</v>
@@ -2878,18 +2917,18 @@
         <v>52</v>
       </c>
       <c r="H79" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I79" s="4" t="s">
         <v>53</v>
       </c>
       <c r="J79" s="4">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B80" s="3">
-        <v>0.88998392670299997</v>
+        <v>0.904218191743</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>32</v>
@@ -2907,12 +2946,12 @@
         <v>53</v>
       </c>
       <c r="J80" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B81" s="3">
-        <v>0.88455883004299996</v>
+        <v>0.88998392670299997</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>32</v>
@@ -2930,12 +2969,12 @@
         <v>53</v>
       </c>
       <c r="J81" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B82" s="3">
-        <v>0.88551552110499998</v>
+        <v>0.88455883004299996</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>32</v>
@@ -2953,12 +2992,12 @@
         <v>53</v>
       </c>
       <c r="J82" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B83" s="3">
-        <v>0.88867127082999997</v>
+        <v>0.88551552110499998</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>32</v>
@@ -2976,12 +3015,12 @@
         <v>53</v>
       </c>
       <c r="J83" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B84" s="3">
-        <v>0.90370600209899998</v>
+        <v>0.88867127082999997</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>32</v>
@@ -2993,18 +3032,18 @@
         <v>52</v>
       </c>
       <c r="H84" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I84" s="4" t="s">
         <v>53</v>
       </c>
       <c r="J84" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B85" s="3">
-        <v>0.88945537243899997</v>
+        <v>0.90370600209899998</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>32</v>
@@ -3022,12 +3061,12 @@
         <v>53</v>
       </c>
       <c r="J85" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B86" s="3">
-        <v>0.88372436669599996</v>
+        <v>0.88945537243899997</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>32</v>
@@ -3045,12 +3084,12 @@
         <v>53</v>
       </c>
       <c r="J86" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B87" s="3">
-        <v>0.88257198782500001</v>
+        <v>0.88372436669599996</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>32</v>
@@ -3068,12 +3107,12 @@
         <v>53</v>
       </c>
       <c r="J87" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B88" s="3">
-        <v>0.88564362675899999</v>
+        <v>0.88257198782500001</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>32</v>
@@ -3091,12 +3130,12 @@
         <v>53</v>
       </c>
       <c r="J88" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B89" s="3">
-        <v>0.90361268436200004</v>
+        <v>0.88564362675899999</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>32</v>
@@ -3108,18 +3147,18 @@
         <v>52</v>
       </c>
       <c r="H89" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I89" s="4" t="s">
         <v>53</v>
       </c>
       <c r="J89" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B90" s="3">
-        <v>0.88885911610900004</v>
+        <v>0.90361268436200004</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>32</v>
@@ -3137,12 +3176,12 @@
         <v>53</v>
       </c>
       <c r="J90" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B91" s="3">
-        <v>0.88339675469099999</v>
+        <v>0.88885911610900004</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>32</v>
@@ -3160,12 +3199,12 @@
         <v>53</v>
       </c>
       <c r="J91" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B92" s="3">
-        <v>0.88120345338700001</v>
+        <v>0.88339675469099999</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>32</v>
@@ -3183,12 +3222,12 @@
         <v>53</v>
       </c>
       <c r="J92" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B93" s="3">
-        <v>0.88197202224100002</v>
+        <v>0.88120345338700001</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>32</v>
@@ -3206,11 +3245,193 @@
         <v>53</v>
       </c>
       <c r="J93" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B94" s="3">
+        <v>0.88197202224100002</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H94" s="4">
+        <v>20</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J94" s="4">
         <v>15</v>
       </c>
     </row>
+    <row r="95" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A95" s="6">
+        <v>0.99551999999999996</v>
+      </c>
+      <c r="B95" s="6">
+        <v>0.87341501332816995</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H95" s="6">
+        <v>20</v>
+      </c>
+      <c r="I95" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J95" s="6">
+        <v>13</v>
+      </c>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4">
+        <v>0.88347368981974805</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H96" s="4">
+        <v>20</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J96" s="4">
+        <v>13</v>
+      </c>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A97" s="4">
+        <v>1.0050699999999999</v>
+      </c>
+      <c r="B97" s="4">
+        <v>0.87455486851514297</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H97" s="4">
+        <v>20</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J97" s="4">
+        <v>13</v>
+      </c>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A98" s="4">
+        <v>1.00553</v>
+      </c>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H98" s="4">
+        <v>100</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J98" s="4">
+        <v>13</v>
+      </c>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B99" s="3">
+        <v>0.88212698533280098</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H99" s="4">
+        <v>20</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J99" s="4">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L58" xr:uid="{04283181-21E1-4864-89F9-E7DCA45A7C06}"/>
+  <autoFilter ref="A1:L59" xr:uid="{04283181-21E1-4864-89F9-E7DCA45A7C06}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3219,22 +3440,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA41EA8-9DC4-4054-91DD-B0B867C5A1F3}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -3254,7 +3475,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3265,7 +3486,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3276,7 +3497,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3296,7 +3517,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3316,7 +3537,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3327,7 +3548,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3344,7 +3565,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3361,7 +3582,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3381,7 +3602,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3401,7 +3622,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3421,7 +3642,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3441,7 +3662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3461,7 +3682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3479,6 +3700,29 @@
       </c>
       <c r="F14" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3489,15 +3733,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F10282-E03B-41E4-9656-447AAEC3FEAD}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="2"/>
+    <col min="1" max="1" width="127.08203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
@@ -3505,31 +3749,52 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
-        <v>114</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="17.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A6:A1048576" evalError="1"/>
+    <ignoredError sqref="A15:A1048576" evalError="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/competitive-data-science-final-project/experiment_result.xlsx
+++ b/competitive-data-science-final-project/experiment_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desca\Documents\GitHub\kaggle-solution\competitive-data-science-final-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{06D90E98-EF7E-4E01-BF97-BBA8A0774627}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{33EFF8C5-BD51-41BC-B7A2-973B6EF01CFA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="9800" activeTab="2" xr2:uid="{110610AC-7657-4A29-8901-E492387803D1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="9800" xr2:uid="{110610AC-7657-4A29-8901-E492387803D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Single Model" sheetId="1" r:id="rId1"/>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -517,6 +513,10 @@
   </si>
   <si>
     <t>=&gt; FEATURE 수 줄이기(중요도에서 떨어지는거 버리기, 랜덤포레스트에서. 또는 ../</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sparse data structure 쓰면 변환시킬때 메모리를 또 써야되서 이때 뻑남</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -920,9 +920,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B683405E-2C0F-415E-8799-3E87C229D8BE}">
   <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -950,34 +950,34 @@
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
@@ -989,7 +989,7 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>2</v>
@@ -1008,10 +1008,10 @@
         <v>0.93157116851300004</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>2</v>
@@ -1030,10 +1030,10 @@
         <v>0.92622532390000001</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>2</v>
@@ -1052,10 +1052,10 @@
         <v>0.925771859478</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>2</v>
@@ -1074,10 +1074,10 @@
         <v>0.924365311084</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>2</v>
@@ -1098,10 +1098,10 @@
         <v>0.90268626150200004</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>2</v>
@@ -1120,10 +1120,10 @@
         <v>0.90862273271500005</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>2</v>
@@ -1142,13 +1142,13 @@
         <v>0.902492535176593</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -1164,10 +1164,10 @@
         <v>0.90004395042523599</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>2</v>
@@ -1186,16 +1186,16 @@
         <v>0.90265123208152798</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -1210,16 +1210,16 @@
         <v>0.89983426610180595</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>3</v>
@@ -1256,10 +1256,10 @@
         <v>0.91242207741000003</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>3</v>
@@ -1278,10 +1278,10 @@
         <v>0.91010687839899995</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>3</v>
@@ -1300,10 +1300,10 @@
         <v>0.90829862339699996</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>3</v>
@@ -1322,10 +1322,10 @@
         <v>0.91894770924299995</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>3</v>
@@ -1346,10 +1346,10 @@
         <v>0.99750444355500001</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>3</v>
@@ -1368,10 +1368,10 @@
         <v>0.98603652529800001</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>3</v>
@@ -1390,10 +1390,10 @@
         <v>0.99707153341365495</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>3</v>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>3</v>
@@ -1432,16 +1432,16 @@
         <v>1.10639082140417</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="F22" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -1456,16 +1456,16 @@
         <v>0.99707153801154402</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -1481,20 +1481,20 @@
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H24" s="4">
         <v>10</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J24" s="4">
         <v>5</v>
@@ -1508,21 +1508,21 @@
         <v>0.90741624605399995</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J25" s="4">
         <v>20</v>
@@ -1536,21 +1536,21 @@
         <v>0.90761496897399996</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J26" s="4">
         <v>20</v>
@@ -1564,21 +1564,21 @@
         <v>0.90150152509299997</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J27" s="4">
         <v>20</v>
@@ -1592,21 +1592,21 @@
         <v>0.88658519688600002</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J28" s="4">
         <v>20</v>
@@ -1620,23 +1620,23 @@
         <v>0.88313823025100002</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H29" s="4">
         <v>50</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J29" s="4">
         <v>13</v>
@@ -1653,14 +1653,14 @@
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -1674,17 +1674,17 @@
         <v>0.89404424438600005</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -1698,17 +1698,17 @@
         <v>0.89382240900900001</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -1724,17 +1724,17 @@
         <v>0.88624295087399996</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
@@ -1750,17 +1750,17 @@
         <v>0.87875613368399996</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
@@ -1776,17 +1776,17 @@
         <v>0.87819175989599996</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
@@ -1802,17 +1802,17 @@
         <v>0.875355556599</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
@@ -1828,17 +1828,17 @@
         <v>0.87677772780499996</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -1852,17 +1852,17 @@
         <v>0.87840246164900004</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -1876,17 +1876,17 @@
         <v>0.87621119026675498</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
@@ -1900,10 +1900,10 @@
         <v>0.877742166791878</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>4</v>
@@ -1922,16 +1922,16 @@
         <v>0.88674067221504804</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -1946,16 +1946,16 @@
         <v>0.87608074968348504</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -1970,16 +1970,16 @@
         <v>0.88672815992884502</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -1996,23 +1996,23 @@
         <v>0.87254745</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H44" s="4">
         <v>10</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J44" s="4">
         <v>0.03</v>
@@ -2026,25 +2026,25 @@
         <v>0.87569755000000005</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H45" s="4">
         <v>10</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J45" s="4">
         <v>0.03</v>
@@ -2060,25 +2060,25 @@
         <v>0.87098450000000005</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H46" s="4">
         <v>10</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J46" s="4">
         <v>0.03</v>
@@ -2092,25 +2092,25 @@
         <v>0.87428755000000002</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H47" s="4">
         <v>10</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J47" s="4">
         <v>0.03</v>
@@ -2125,18 +2125,18 @@
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J48" s="4">
         <v>3</v>
@@ -2150,21 +2150,21 @@
         <v>0.90359447357300005</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J49" s="4">
         <v>10</v>
@@ -2178,21 +2178,21 @@
         <v>0.90654509225699997</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H50" s="4"/>
       <c r="I50" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J50" s="4">
         <v>10</v>
@@ -2206,21 +2206,21 @@
         <v>0.90493170008500001</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H51" s="4"/>
       <c r="I51" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J51" s="4">
         <v>10</v>
@@ -2234,23 +2234,23 @@
         <v>0.900006389736</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H52" s="4">
         <v>5</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J52" s="4">
         <v>10</v>
@@ -2264,23 +2264,23 @@
         <v>0.88455883004299996</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H53" s="4">
         <v>5</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J53" s="4">
         <v>10</v>
@@ -2294,23 +2294,23 @@
         <v>0.88063063790100005</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H54" s="4">
         <v>50</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J54" s="4">
         <v>13</v>
@@ -2324,23 +2324,23 @@
         <v>0.88098045867200003</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H55" s="4">
         <v>50</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J55" s="4">
         <v>14</v>
@@ -2354,23 +2354,23 @@
         <v>0.88076892321099998</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H56" s="4">
         <v>50</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J56" s="4">
         <v>15</v>
@@ -2384,23 +2384,23 @@
         <v>0.88124621663500002</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H57" s="4">
         <v>50</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J57" s="4">
         <v>16</v>
@@ -2414,23 +2414,23 @@
         <v>1.08458987675</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H58" s="4">
         <v>1</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
@@ -2442,23 +2442,23 @@
         <v>0.88826390727799998</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H59" s="4">
         <v>5</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J59" s="4">
         <v>10</v>
@@ -2471,19 +2471,19 @@
         <v>0.90736498257700005</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H60" s="4">
         <v>1</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J60" s="4">
         <v>5</v>
@@ -2494,19 +2494,19 @@
         <v>0.89459729871000004</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H61" s="4">
         <v>1</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J61" s="4">
         <v>8</v>
@@ -2517,19 +2517,19 @@
         <v>0.89544302568199996</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H62" s="4">
         <v>1</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J62" s="4">
         <v>10</v>
@@ -2540,19 +2540,19 @@
         <v>0.90793449597099996</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H63" s="4">
         <v>1</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J63" s="4">
         <v>13</v>
@@ -2563,19 +2563,19 @@
         <v>0.92293180072299996</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H64" s="4">
         <v>1</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J64" s="4">
         <v>15</v>
@@ -2586,19 +2586,19 @@
         <v>0.905816024133</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H65" s="4">
         <v>2</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J65" s="4">
         <v>5</v>
@@ -2609,19 +2609,19 @@
         <v>0.89237830044099997</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H66" s="4">
         <v>2</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J66" s="4">
         <v>8</v>
@@ -2632,19 +2632,19 @@
         <v>0.891449670099</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H67" s="4">
         <v>2</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J67" s="4">
         <v>10</v>
@@ -2655,19 +2655,19 @@
         <v>0.89494046597700005</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H68" s="4">
         <v>2</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J68" s="4">
         <v>13</v>
@@ -2678,19 +2678,19 @@
         <v>0.90652402661599996</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H69" s="4">
         <v>2</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J69" s="4">
         <v>15</v>
@@ -2701,19 +2701,19 @@
         <v>0.90480493064599998</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H70" s="4">
         <v>3</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J70" s="4">
         <v>5</v>
@@ -2724,19 +2724,19 @@
         <v>0.89157409954199995</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H71" s="4">
         <v>3</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J71" s="4">
         <v>8</v>
@@ -2747,19 +2747,19 @@
         <v>0.88875103330799998</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H72" s="4">
         <v>3</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J72" s="4">
         <v>10</v>
@@ -2770,19 +2770,19 @@
         <v>0.89049898720200005</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H73" s="4">
         <v>3</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J73" s="4">
         <v>13</v>
@@ -2793,19 +2793,19 @@
         <v>0.89728100708199998</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H74" s="4">
         <v>3</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J74" s="4">
         <v>15</v>
@@ -2816,19 +2816,19 @@
         <v>0.90442571138200001</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H75" s="4">
         <v>4</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J75" s="4">
         <v>5</v>
@@ -2839,19 +2839,19 @@
         <v>0.89102619480300005</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H76" s="4">
         <v>4</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J76" s="4">
         <v>8</v>
@@ -2862,19 +2862,19 @@
         <v>0.88606686239499999</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H77" s="4">
         <v>4</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J77" s="4">
         <v>10</v>
@@ -2885,19 +2885,19 @@
         <v>0.88705249782899998</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H78" s="4">
         <v>4</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J78" s="4">
         <v>13</v>
@@ -2908,19 +2908,19 @@
         <v>0.89074694206799998</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H79" s="4">
         <v>4</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J79" s="4">
         <v>15</v>
@@ -2931,19 +2931,19 @@
         <v>0.904218191743</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H80" s="4">
         <v>5</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J80" s="4">
         <v>5</v>
@@ -2954,19 +2954,19 @@
         <v>0.88998392670299997</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H81" s="4">
         <v>5</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J81" s="4">
         <v>8</v>
@@ -2977,19 +2977,19 @@
         <v>0.88455883004299996</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H82" s="4">
         <v>5</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J82" s="4">
         <v>10</v>
@@ -3000,19 +3000,19 @@
         <v>0.88551552110499998</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H83" s="4">
         <v>5</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J83" s="4">
         <v>13</v>
@@ -3023,19 +3023,19 @@
         <v>0.88867127082999997</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H84" s="4">
         <v>5</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J84" s="4">
         <v>15</v>
@@ -3046,19 +3046,19 @@
         <v>0.90370600209899998</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H85" s="4">
         <v>10</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J85" s="4">
         <v>5</v>
@@ -3069,19 +3069,19 @@
         <v>0.88945537243899997</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H86" s="4">
         <v>10</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J86" s="4">
         <v>8</v>
@@ -3092,19 +3092,19 @@
         <v>0.88372436669599996</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H87" s="4">
         <v>10</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J87" s="4">
         <v>10</v>
@@ -3115,19 +3115,19 @@
         <v>0.88257198782500001</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H88" s="4">
         <v>10</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J88" s="4">
         <v>13</v>
@@ -3138,19 +3138,19 @@
         <v>0.88564362675899999</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H89" s="4">
         <v>10</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J89" s="4">
         <v>15</v>
@@ -3161,19 +3161,19 @@
         <v>0.90361268436200004</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H90" s="4">
         <v>20</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J90" s="4">
         <v>5</v>
@@ -3184,19 +3184,19 @@
         <v>0.88885911610900004</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H91" s="4">
         <v>20</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J91" s="4">
         <v>8</v>
@@ -3207,19 +3207,19 @@
         <v>0.88339675469099999</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H92" s="4">
         <v>20</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J92" s="4">
         <v>10</v>
@@ -3230,19 +3230,19 @@
         <v>0.88120345338700001</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H93" s="4">
         <v>20</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J93" s="4">
         <v>13</v>
@@ -3253,19 +3253,19 @@
         <v>0.88197202224100002</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H94" s="4">
         <v>20</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J94" s="4">
         <v>15</v>
@@ -3279,23 +3279,23 @@
         <v>0.87341501332816995</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F95" s="6"/>
       <c r="G95" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H95" s="6">
         <v>20</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J95" s="6">
         <v>13</v>
@@ -3309,25 +3309,25 @@
         <v>0.88347368981974805</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H96" s="4">
         <v>20</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J96" s="4">
         <v>13</v>
@@ -3343,25 +3343,25 @@
         <v>0.87455486851514297</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H97" s="4">
         <v>20</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J97" s="4">
         <v>13</v>
@@ -3375,25 +3375,25 @@
       </c>
       <c r="B98" s="4"/>
       <c r="C98" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F98" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D98" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="G98" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H98" s="4">
         <v>100</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J98" s="4">
         <v>13</v>
@@ -3406,25 +3406,25 @@
         <v>0.88212698533280098</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H99" s="4">
         <v>20</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J99" s="4">
         <v>13</v>
@@ -3440,289 +3440,243 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA41EA8-9DC4-4054-91DD-B0B867C5A1F3}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="1" max="1" width="14.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.4140625" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>9</v>
       </c>
       <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C15" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="D15" t="s">
         <v>24</v>
       </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
         <v>114</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3733,68 +3687,70 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F10282-E03B-41E4-9656-447AAEC3FEAD}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="127.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="74.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="17.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A15:A1048576" evalError="1"/>
+    <ignoredError sqref="A17:A1048576" evalError="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/competitive-data-science-final-project/experiment_result.xlsx
+++ b/competitive-data-science-final-project/experiment_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desca\Documents\GitHub\kaggle-solution\competitive-data-science-final-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{33EFF8C5-BD51-41BC-B7A2-973B6EF01CFA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4D1BD735-59BB-4C3A-A1B1-48B374541E8E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="9800" xr2:uid="{110610AC-7657-4A29-8901-E492387803D1}"/>
   </bookViews>
@@ -922,7 +922,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
+      <selection pane="bottomLeft" activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>

--- a/competitive-data-science-final-project/experiment_result.xlsx
+++ b/competitive-data-science-final-project/experiment_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desca\Documents\GitHub\kaggle-solution\competitive-data-science-final-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4D1BD735-59BB-4C3A-A1B1-48B374541E8E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8A1BD19C-3816-4CA4-8549-2ADF34599B93}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="9800" xr2:uid="{110610AC-7657-4A29-8901-E492387803D1}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="TODO" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Single Model'!$A$1:$L$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Single Model'!$A$1:$L$101</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="134">
   <si>
     <t>Validation Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -518,6 +518,29 @@
   <si>
     <t>sparse data structure 쓰면 변환시킬때 메모리를 또 써야되서 이때 뻑남</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ot-sic-sm-20-l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desktop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7min 24s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desktop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1min 40s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h 43min 45s</t>
   </si>
 </sst>
 </file>
@@ -918,11 +941,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B683405E-2C0F-415E-8799-3E87C229D8BE}">
-  <dimension ref="A1:L99"/>
+  <dimension ref="A1:L105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B100" sqref="B100"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1229,20 +1252,19 @@
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A13" s="4">
-        <v>1.0467</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0.91216194924299998</v>
-      </c>
-      <c r="C13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="D13" s="4" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -1251,15 +1273,15 @@
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A14" s="4"/>
+      <c r="A14" s="4">
+        <v>1.0467</v>
+      </c>
       <c r="B14" s="4">
-        <v>0.91242207741000003</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>46</v>
-      </c>
+        <v>0.91216194924299998</v>
+      </c>
+      <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>3</v>
@@ -1275,13 +1297,13 @@
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="4"/>
       <c r="B15" s="4">
-        <v>0.91010687839899995</v>
+        <v>0.91242207741000003</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>3</v>
@@ -1297,13 +1319,13 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="4"/>
       <c r="B16" s="4">
-        <v>0.90829862339699996</v>
+        <v>0.91010687839899995</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>3</v>
@@ -1319,13 +1341,13 @@
     <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="4"/>
       <c r="B17" s="4">
-        <v>0.91894770924299995</v>
+        <v>0.90829862339699996</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>3</v>
@@ -1339,17 +1361,15 @@
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A18" s="4">
-        <v>1.1273</v>
-      </c>
+      <c r="A18" s="4"/>
       <c r="B18" s="4">
-        <v>0.99750444355500001</v>
+        <v>0.91894770924299995</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>3</v>
@@ -1363,15 +1383,17 @@
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A19" s="4"/>
+      <c r="A19" s="4">
+        <v>1.1273</v>
+      </c>
       <c r="B19" s="4">
-        <v>0.98603652529800001</v>
+        <v>0.99750444355500001</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>3</v>
@@ -1387,13 +1409,13 @@
     <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="4"/>
       <c r="B20" s="4">
-        <v>0.99707153341365495</v>
+        <v>0.98603652529800001</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>3</v>
@@ -1409,11 +1431,13 @@
     <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="4"/>
       <c r="B21" s="4">
-        <v>1.10639082140417</v>
-      </c>
-      <c r="C21" s="4"/>
+        <v>0.99707153341365495</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="D21" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>3</v>
@@ -1428,21 +1452,17 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="4"/>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>1.10639082140417</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>117</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -1453,13 +1473,13 @@
     <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="4"/>
       <c r="B23" s="5">
-        <v>0.99707153801154402</v>
+        <v>1.10639082140417</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>63</v>
@@ -1476,70 +1496,60 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="4"/>
-      <c r="B24" s="4">
-        <v>0.98094078264899998</v>
-      </c>
-      <c r="C24" s="4"/>
+      <c r="B24" s="5">
+        <v>0.99707153801154402</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="D24" s="4" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H24" s="4">
-        <v>10</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J24" s="4">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="4">
-        <v>0.90741624605399995</v>
+      <c r="B25" s="5">
+        <v>0.99270552495678899</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4" t="s">
-        <v>51</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25" s="4"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J25" s="4">
-        <v>20</v>
-      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="4"/>
       <c r="B26" s="4">
-        <v>0.90761496897399996</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>54</v>
-      </c>
+        <v>0.98094078264899998</v>
+      </c>
+      <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>19</v>
@@ -1548,12 +1558,14 @@
       <c r="G26" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H26" s="4"/>
+      <c r="H26" s="4">
+        <v>10</v>
+      </c>
       <c r="I26" s="4" t="s">
         <v>52</v>
       </c>
       <c r="J26" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
@@ -1561,13 +1573,13 @@
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="4"/>
       <c r="B27" s="4">
-        <v>0.90150152509299997</v>
+        <v>0.90741624605399995</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>19</v>
@@ -1589,13 +1601,13 @@
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="4"/>
       <c r="B28" s="4">
-        <v>0.88658519688600002</v>
+        <v>0.90761496897399996</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>19</v>
@@ -1617,13 +1629,13 @@
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="4"/>
       <c r="B29" s="4">
-        <v>0.88313823025100002</v>
+        <v>0.90150152509299997</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>19</v>
@@ -1632,76 +1644,84 @@
       <c r="G29" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H29" s="4">
-        <v>50</v>
-      </c>
+      <c r="H29" s="4"/>
       <c r="I29" s="4" t="s">
         <v>52</v>
       </c>
       <c r="J29" s="4">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A30" s="4">
-        <v>1.02475</v>
-      </c>
+      <c r="A30" s="4"/>
       <c r="B30" s="4">
-        <v>0.89309800061099998</v>
-      </c>
-      <c r="C30" s="4"/>
+        <v>0.88658519688600002</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="D30" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
+      <c r="I30" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J30" s="4">
+        <v>20</v>
+      </c>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="4"/>
       <c r="B31" s="4">
-        <v>0.89404424438600005</v>
+        <v>0.88313823025100002</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="H31" s="4">
+        <v>50</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J31" s="4">
+        <v>13</v>
+      </c>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A32" s="4"/>
+      <c r="A32" s="4">
+        <v>1.02475</v>
+      </c>
       <c r="B32" s="4">
-        <v>0.89382240900900001</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>66</v>
-      </c>
+        <v>0.89309800061099998</v>
+      </c>
+      <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>4</v>
@@ -1717,17 +1737,15 @@
       <c r="L32" s="4"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A33" s="4">
-        <v>1.0186500000000001</v>
-      </c>
+      <c r="A33" s="4"/>
       <c r="B33" s="4">
-        <v>0.88624295087399996</v>
+        <v>0.89404424438600005</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>4</v>
@@ -1743,17 +1761,15 @@
       <c r="L33" s="4"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A34" s="4">
-        <v>1.0120100000000001</v>
-      </c>
+      <c r="A34" s="4"/>
       <c r="B34" s="4">
-        <v>0.87875613368399996</v>
+        <v>0.89382240900900001</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>4</v>
@@ -1770,16 +1786,16 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35" s="4">
-        <v>1.01532</v>
+        <v>1.0186500000000001</v>
       </c>
       <c r="B35" s="4">
-        <v>0.87819175989599996</v>
+        <v>0.88624295087399996</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>4</v>
@@ -1796,16 +1812,16 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36" s="4">
-        <v>1.0126200000000001</v>
+        <v>1.0120100000000001</v>
       </c>
       <c r="B36" s="4">
-        <v>0.875355556599</v>
+        <v>0.87875613368399996</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>4</v>
@@ -1822,16 +1838,16 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37" s="4">
-        <v>1.0125500000000001</v>
+        <v>1.01532</v>
       </c>
       <c r="B37" s="4">
-        <v>0.87677772780499996</v>
+        <v>0.87819175989599996</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>4</v>
@@ -1847,15 +1863,17 @@
       <c r="L37" s="4"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A38" s="4"/>
+      <c r="A38" s="4">
+        <v>1.0126200000000001</v>
+      </c>
       <c r="B38" s="4">
-        <v>0.87840246164900004</v>
+        <v>0.875355556599</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>33</v>
+        <v>75</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>4</v>
@@ -1871,15 +1889,17 @@
       <c r="L38" s="4"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A39" s="4"/>
+      <c r="A39" s="4">
+        <v>1.0125500000000001</v>
+      </c>
       <c r="B39" s="4">
-        <v>0.87621119026675498</v>
+        <v>0.87677772780499996</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>34</v>
+        <v>76</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>4</v>
@@ -1897,19 +1917,21 @@
     <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40" s="4"/>
       <c r="B40" s="4">
-        <v>0.877742166791878</v>
+        <v>0.87840246164900004</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
+      <c r="G40" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -1919,21 +1941,21 @@
     <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41" s="4"/>
       <c r="B41" s="4">
-        <v>0.88674067221504804</v>
+        <v>0.87621119026675498</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F41" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -1943,20 +1965,18 @@
     <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42" s="4"/>
       <c r="B42" s="4">
-        <v>0.87608074968348504</v>
+        <v>0.877742166791878</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
@@ -1967,19 +1987,19 @@
     <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43" s="4"/>
       <c r="B43" s="4">
-        <v>0.88672815992884502</v>
+        <v>0.88674067221504804</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -1989,157 +2009,129 @@
       <c r="L43" s="4"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A44" s="4">
-        <v>1.00275</v>
-      </c>
+      <c r="A44" s="4"/>
       <c r="B44" s="4">
-        <v>0.87254745</v>
+        <v>0.87608074968348504</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H44" s="4">
-        <v>10</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J44" s="4">
-        <v>0.03</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A45" s="4"/>
       <c r="B45" s="4">
-        <v>0.87569755000000005</v>
+        <v>0.88672815992884502</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H45" s="4">
-        <v>10</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J45" s="4">
-        <v>0.03</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A46" s="4">
-        <v>1.00444</v>
-      </c>
+      <c r="A46" s="4"/>
       <c r="B46" s="4">
-        <v>0.87098450000000005</v>
+        <v>0.88561329105080899</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H46" s="4">
-        <v>10</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J46" s="4">
-        <v>0.03</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A47" s="4"/>
       <c r="B47" s="4">
-        <v>0.87428755000000002</v>
+        <v>0.88420341421457305</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H47" s="4">
-        <v>10</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J47" s="4">
-        <v>0.03</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A48" s="4"/>
+      <c r="A48" s="4">
+        <v>1.00275</v>
+      </c>
       <c r="B48" s="4">
-        <v>0.98089349800699999</v>
-      </c>
-      <c r="C48" s="4"/>
+        <v>0.87254745</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="D48" s="4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H48" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="H48" s="4">
+        <v>10</v>
+      </c>
       <c r="I48" s="4" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="J48" s="4">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
@@ -2147,55 +2139,65 @@
     <row r="49" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A49" s="4"/>
       <c r="B49" s="4">
-        <v>0.90359447357300005</v>
+        <v>0.87569755000000005</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="G49" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H49" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="H49" s="4">
+        <v>10</v>
+      </c>
       <c r="I49" s="4" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="J49" s="4">
-        <v>10</v>
+        <v>0.03</v>
       </c>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A50" s="4"/>
+      <c r="A50" s="4">
+        <v>1.00444</v>
+      </c>
       <c r="B50" s="4">
-        <v>0.90654509225699997</v>
+        <v>0.87098450000000005</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F50" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="G50" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H50" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="H50" s="4">
+        <v>10</v>
+      </c>
       <c r="I50" s="4" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="J50" s="4">
-        <v>10</v>
+        <v>0.03</v>
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
@@ -2203,27 +2205,31 @@
     <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51" s="4"/>
       <c r="B51" s="4">
-        <v>0.90493170008500001</v>
+        <v>0.87428755000000002</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F51" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="G51" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H51" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="H51" s="4">
+        <v>10</v>
+      </c>
       <c r="I51" s="4" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="J51" s="4">
-        <v>10</v>
+        <v>0.03</v>
       </c>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
@@ -2231,13 +2237,11 @@
     <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52" s="4"/>
       <c r="B52" s="4">
-        <v>0.900006389736</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>96</v>
-      </c>
+        <v>0.98089349800699999</v>
+      </c>
+      <c r="C52" s="4"/>
       <c r="D52" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>5</v>
@@ -2246,14 +2250,12 @@
       <c r="G52" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H52" s="4">
-        <v>5</v>
-      </c>
+      <c r="H52" s="4"/>
       <c r="I52" s="4" t="s">
         <v>52</v>
       </c>
       <c r="J52" s="4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
@@ -2261,13 +2263,13 @@
     <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A53" s="4"/>
       <c r="B53" s="4">
-        <v>0.88455883004299996</v>
+        <v>0.90359447357300005</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>5</v>
@@ -2276,9 +2278,7 @@
       <c r="G53" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H53" s="4">
-        <v>5</v>
-      </c>
+      <c r="H53" s="4"/>
       <c r="I53" s="4" t="s">
         <v>52</v>
       </c>
@@ -2291,13 +2291,13 @@
     <row r="54" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A54" s="4"/>
       <c r="B54" s="4">
-        <v>0.88063063790100005</v>
+        <v>0.90654509225699997</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>5</v>
@@ -2306,14 +2306,12 @@
       <c r="G54" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H54" s="4">
-        <v>50</v>
-      </c>
+      <c r="H54" s="4"/>
       <c r="I54" s="4" t="s">
         <v>52</v>
       </c>
       <c r="J54" s="4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
@@ -2321,13 +2319,13 @@
     <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A55" s="4"/>
       <c r="B55" s="4">
-        <v>0.88098045867200003</v>
+        <v>0.90493170008500001</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>5</v>
@@ -2336,14 +2334,12 @@
       <c r="G55" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H55" s="4">
-        <v>50</v>
-      </c>
+      <c r="H55" s="4"/>
       <c r="I55" s="4" t="s">
         <v>52</v>
       </c>
       <c r="J55" s="4">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
@@ -2351,13 +2347,13 @@
     <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A56" s="4"/>
       <c r="B56" s="4">
-        <v>0.88076892321099998</v>
+        <v>0.900006389736</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>5</v>
@@ -2367,13 +2363,13 @@
         <v>51</v>
       </c>
       <c r="H56" s="4">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="I56" s="4" t="s">
         <v>52</v>
       </c>
       <c r="J56" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
@@ -2381,10 +2377,10 @@
     <row r="57" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A57" s="4"/>
       <c r="B57" s="4">
-        <v>0.88124621663500002</v>
+        <v>0.88455883004299996</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>32</v>
@@ -2397,13 +2393,13 @@
         <v>51</v>
       </c>
       <c r="H57" s="4">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>52</v>
       </c>
       <c r="J57" s="4">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
@@ -2411,10 +2407,10 @@
     <row r="58" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A58" s="4"/>
       <c r="B58" s="4">
-        <v>1.08458987675</v>
+        <v>0.88063063790100005</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>32</v>
@@ -2427,25 +2423,27 @@
         <v>51</v>
       </c>
       <c r="H58" s="4">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J58" s="4"/>
+      <c r="J58" s="4">
+        <v>13</v>
+      </c>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A59" s="4"/>
       <c r="B59" s="4">
-        <v>0.88826390727799998</v>
+        <v>0.88098045867200003</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>5</v>
@@ -2455,73 +2453,92 @@
         <v>51</v>
       </c>
       <c r="H59" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="I59" s="4" t="s">
         <v>52</v>
       </c>
       <c r="J59" s="4">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A60" s="4"/>
       <c r="B60" s="4">
-        <v>0.90736498257700005</v>
-      </c>
-      <c r="D60" s="3" t="s">
+        <v>0.88076892321099998</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D60" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="F60" s="4"/>
       <c r="G60" s="4" t="s">
         <v>51</v>
       </c>
       <c r="H60" s="4">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I60" s="4" t="s">
         <v>52</v>
       </c>
       <c r="J60" s="4">
-        <v>5</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A61" s="4"/>
       <c r="B61" s="4">
-        <v>0.89459729871000004</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>31</v>
+        <v>0.88124621663500002</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="F61" s="4"/>
       <c r="G61" s="4" t="s">
         <v>51</v>
       </c>
       <c r="H61" s="4">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I61" s="4" t="s">
         <v>52</v>
       </c>
       <c r="J61" s="4">
-        <v>8</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A62" s="4"/>
       <c r="B62" s="4">
-        <v>0.89544302568199996</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>31</v>
+        <v>1.08458987675</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="F62" s="4"/>
       <c r="G62" s="4" t="s">
         <v>51</v>
       </c>
@@ -2531,39 +2548,46 @@
       <c r="I62" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J62" s="4">
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4">
+        <v>0.88826390727799998</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H63" s="4">
+        <v>5</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J63" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B63" s="4">
-        <v>0.90793449597099996</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H63" s="4">
-        <v>1</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J63" s="4">
-        <v>13</v>
-      </c>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B64" s="4">
-        <v>0.92293180072299996</v>
+        <v>0.90736498257700005</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>5</v>
@@ -2578,12 +2602,12 @@
         <v>52</v>
       </c>
       <c r="J64" s="4">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B65" s="4">
-        <v>0.905816024133</v>
+        <v>0.89459729871000004</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>31</v>
@@ -2595,18 +2619,18 @@
         <v>51</v>
       </c>
       <c r="H65" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" s="4" t="s">
         <v>52</v>
       </c>
       <c r="J65" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B66" s="4">
-        <v>0.89237830044099997</v>
+        <v>0.89544302568199996</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>31</v>
@@ -2618,18 +2642,18 @@
         <v>51</v>
       </c>
       <c r="H66" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" s="4" t="s">
         <v>52</v>
       </c>
       <c r="J66" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B67" s="4">
-        <v>0.891449670099</v>
+        <v>0.90793449597099996</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>31</v>
@@ -2641,18 +2665,18 @@
         <v>51</v>
       </c>
       <c r="H67" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" s="4" t="s">
         <v>52</v>
       </c>
       <c r="J67" s="4">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B68" s="4">
-        <v>0.89494046597700005</v>
+        <v>0.92293180072299996</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>31</v>
@@ -2664,18 +2688,18 @@
         <v>51</v>
       </c>
       <c r="H68" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" s="4" t="s">
         <v>52</v>
       </c>
       <c r="J68" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B69" s="4">
-        <v>0.90652402661599996</v>
+        <v>0.905816024133</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>31</v>
@@ -2693,12 +2717,12 @@
         <v>52</v>
       </c>
       <c r="J69" s="4">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B70" s="3">
-        <v>0.90480493064599998</v>
+      <c r="B70" s="4">
+        <v>0.89237830044099997</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>31</v>
@@ -2710,18 +2734,18 @@
         <v>51</v>
       </c>
       <c r="H70" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70" s="4" t="s">
         <v>52</v>
       </c>
       <c r="J70" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B71" s="3">
-        <v>0.89157409954199995</v>
+      <c r="B71" s="4">
+        <v>0.891449670099</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>31</v>
@@ -2733,18 +2757,18 @@
         <v>51</v>
       </c>
       <c r="H71" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I71" s="4" t="s">
         <v>52</v>
       </c>
       <c r="J71" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B72" s="3">
-        <v>0.88875103330799998</v>
+      <c r="B72" s="4">
+        <v>0.89494046597700005</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>31</v>
@@ -2756,18 +2780,18 @@
         <v>51</v>
       </c>
       <c r="H72" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72" s="4" t="s">
         <v>52</v>
       </c>
       <c r="J72" s="4">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B73" s="3">
-        <v>0.89049898720200005</v>
+      <c r="B73" s="4">
+        <v>0.90652402661599996</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>31</v>
@@ -2779,18 +2803,18 @@
         <v>51</v>
       </c>
       <c r="H73" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I73" s="4" t="s">
         <v>52</v>
       </c>
       <c r="J73" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B74" s="3">
-        <v>0.89728100708199998</v>
+        <v>0.90480493064599998</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>31</v>
@@ -2808,12 +2832,12 @@
         <v>52</v>
       </c>
       <c r="J74" s="4">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B75" s="3">
-        <v>0.90442571138200001</v>
+        <v>0.89157409954199995</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>31</v>
@@ -2825,18 +2849,18 @@
         <v>51</v>
       </c>
       <c r="H75" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I75" s="4" t="s">
         <v>52</v>
       </c>
       <c r="J75" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B76" s="3">
-        <v>0.89102619480300005</v>
+        <v>0.88875103330799998</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>31</v>
@@ -2848,18 +2872,18 @@
         <v>51</v>
       </c>
       <c r="H76" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I76" s="4" t="s">
         <v>52</v>
       </c>
       <c r="J76" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B77" s="3">
-        <v>0.88606686239499999</v>
+        <v>0.89049898720200005</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>31</v>
@@ -2871,18 +2895,18 @@
         <v>51</v>
       </c>
       <c r="H77" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I77" s="4" t="s">
         <v>52</v>
       </c>
       <c r="J77" s="4">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B78" s="3">
-        <v>0.88705249782899998</v>
+        <v>0.89728100708199998</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>31</v>
@@ -2894,18 +2918,18 @@
         <v>51</v>
       </c>
       <c r="H78" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I78" s="4" t="s">
         <v>52</v>
       </c>
       <c r="J78" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B79" s="3">
-        <v>0.89074694206799998</v>
+        <v>0.90442571138200001</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>31</v>
@@ -2923,12 +2947,12 @@
         <v>52</v>
       </c>
       <c r="J79" s="4">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B80" s="3">
-        <v>0.904218191743</v>
+        <v>0.89102619480300005</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>31</v>
@@ -2940,18 +2964,18 @@
         <v>51</v>
       </c>
       <c r="H80" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I80" s="4" t="s">
         <v>52</v>
       </c>
       <c r="J80" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B81" s="3">
-        <v>0.88998392670299997</v>
+        <v>0.88606686239499999</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>31</v>
@@ -2963,18 +2987,18 @@
         <v>51</v>
       </c>
       <c r="H81" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I81" s="4" t="s">
         <v>52</v>
       </c>
       <c r="J81" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B82" s="3">
-        <v>0.88455883004299996</v>
+        <v>0.88705249782899998</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>31</v>
@@ -2986,18 +3010,18 @@
         <v>51</v>
       </c>
       <c r="H82" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I82" s="4" t="s">
         <v>52</v>
       </c>
       <c r="J82" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B83" s="3">
-        <v>0.88551552110499998</v>
+        <v>0.89074694206799998</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>31</v>
@@ -3009,18 +3033,18 @@
         <v>51</v>
       </c>
       <c r="H83" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I83" s="4" t="s">
         <v>52</v>
       </c>
       <c r="J83" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B84" s="3">
-        <v>0.88867127082999997</v>
+        <v>0.904218191743</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>31</v>
@@ -3038,12 +3062,12 @@
         <v>52</v>
       </c>
       <c r="J84" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B85" s="3">
-        <v>0.90370600209899998</v>
+        <v>0.88998392670299997</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>31</v>
@@ -3055,18 +3079,18 @@
         <v>51</v>
       </c>
       <c r="H85" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I85" s="4" t="s">
         <v>52</v>
       </c>
       <c r="J85" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B86" s="3">
-        <v>0.88945537243899997</v>
+        <v>0.88455883004299996</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>31</v>
@@ -3078,18 +3102,18 @@
         <v>51</v>
       </c>
       <c r="H86" s="4">
+        <v>5</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J86" s="4">
         <v>10</v>
       </c>
-      <c r="I86" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J86" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B87" s="3">
-        <v>0.88372436669599996</v>
+        <v>0.88551552110499998</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>31</v>
@@ -3101,18 +3125,18 @@
         <v>51</v>
       </c>
       <c r="H87" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I87" s="4" t="s">
         <v>52</v>
       </c>
       <c r="J87" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B88" s="3">
-        <v>0.88257198782500001</v>
+        <v>0.88867127082999997</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>31</v>
@@ -3124,18 +3148,18 @@
         <v>51</v>
       </c>
       <c r="H88" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I88" s="4" t="s">
         <v>52</v>
       </c>
       <c r="J88" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B89" s="3">
-        <v>0.88564362675899999</v>
+        <v>0.90370600209899998</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>31</v>
@@ -3153,12 +3177,12 @@
         <v>52</v>
       </c>
       <c r="J89" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B90" s="3">
-        <v>0.90361268436200004</v>
+        <v>0.88945537243899997</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>31</v>
@@ -3170,18 +3194,18 @@
         <v>51</v>
       </c>
       <c r="H90" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I90" s="4" t="s">
         <v>52</v>
       </c>
       <c r="J90" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B91" s="3">
-        <v>0.88885911610900004</v>
+        <v>0.88372436669599996</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>31</v>
@@ -3193,18 +3217,18 @@
         <v>51</v>
       </c>
       <c r="H91" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I91" s="4" t="s">
         <v>52</v>
       </c>
       <c r="J91" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B92" s="3">
-        <v>0.88339675469099999</v>
+        <v>0.88257198782500001</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>31</v>
@@ -3216,18 +3240,18 @@
         <v>51</v>
       </c>
       <c r="H92" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I92" s="4" t="s">
         <v>52</v>
       </c>
       <c r="J92" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B93" s="3">
-        <v>0.88120345338700001</v>
+        <v>0.88564362675899999</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>31</v>
@@ -3239,18 +3263,18 @@
         <v>51</v>
       </c>
       <c r="H93" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I93" s="4" t="s">
         <v>52</v>
       </c>
       <c r="J93" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B94" s="3">
-        <v>0.88197202224100002</v>
+        <v>0.90361268436200004</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>31</v>
@@ -3268,57 +3292,41 @@
         <v>52</v>
       </c>
       <c r="J94" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A95" s="6">
-        <v>0.99551999999999996</v>
-      </c>
-      <c r="B95" s="6">
-        <v>0.87341501332816995</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H95" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B95" s="3">
+        <v>0.88885911610900004</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H95" s="4">
         <v>20</v>
       </c>
-      <c r="I95" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J95" s="6">
-        <v>13</v>
-      </c>
-      <c r="K95" s="6"/>
-      <c r="L95" s="6"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4">
-        <v>0.88347368981974805</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>35</v>
+      <c r="I95" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J95" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B96" s="3">
+        <v>0.88339675469099999</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>51</v>
@@ -3330,29 +3338,18 @@
         <v>52</v>
       </c>
       <c r="J96" s="4">
-        <v>13</v>
-      </c>
-      <c r="K96" s="4"/>
-      <c r="L96" s="4"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A97" s="4">
-        <v>1.0050699999999999</v>
-      </c>
-      <c r="B97" s="4">
-        <v>0.87455486851514297</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>113</v>
+      <c r="B97" s="3">
+        <v>0.88120345338700001</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>51</v>
@@ -3366,72 +3363,249 @@
       <c r="J97" s="4">
         <v>13</v>
       </c>
-      <c r="K97" s="4"/>
-      <c r="L97" s="4"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A98" s="4">
+      <c r="B98" s="3">
+        <v>0.88197202224100002</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H98" s="4">
+        <v>20</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J98" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A99" s="6">
+        <v>0.99551999999999996</v>
+      </c>
+      <c r="B99" s="6">
+        <v>0.87341501332816995</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H99" s="6">
+        <v>20</v>
+      </c>
+      <c r="I99" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J99" s="6">
+        <v>13</v>
+      </c>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4">
+        <v>0.88347368981974805</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H100" s="4">
+        <v>20</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J100" s="4">
+        <v>13</v>
+      </c>
+      <c r="K100" s="4"/>
+      <c r="L100" s="4"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A101" s="4">
+        <v>1.0050699999999999</v>
+      </c>
+      <c r="B101" s="4">
+        <v>0.87455486851514297</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H101" s="4">
+        <v>20</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J101" s="4">
+        <v>13</v>
+      </c>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A102" s="4">
         <v>1.00553</v>
       </c>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4" t="s">
+      <c r="B102" s="4"/>
+      <c r="C102" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="D102" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E98" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F98" s="4" t="s">
+      <c r="E102" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G98" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H98" s="4">
+      <c r="G102" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H102" s="4">
         <v>100</v>
       </c>
-      <c r="I98" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J98" s="4">
+      <c r="I102" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J102" s="4">
         <v>13</v>
       </c>
-      <c r="K98" s="4"/>
-      <c r="L98" s="4"/>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B99" s="3">
+      <c r="K102" s="4"/>
+      <c r="L102" s="4"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B103" s="3">
         <v>0.88212698533280098</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C103" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="D103" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E99" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F99" s="4" t="s">
+      <c r="E103" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F103" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G99" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H99" s="4">
+      <c r="G103" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H103" s="4">
         <v>20</v>
       </c>
-      <c r="I99" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J99" s="4">
+      <c r="I103" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J103" s="4">
         <v>13</v>
       </c>
     </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B104" s="4">
+        <v>0.88212698533280098</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H104" s="4">
+        <v>20</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J104" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B105" s="3">
+        <v>0.87969240004591998</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H105" s="4">
+        <v>20</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J105" s="4">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L59" xr:uid="{04283181-21E1-4864-89F9-E7DCA45A7C06}"/>
+  <autoFilter ref="A1:L63" xr:uid="{04283181-21E1-4864-89F9-E7DCA45A7C06}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3440,10 +3614,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA41EA8-9DC4-4054-91DD-B0B867C5A1F3}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3677,6 +3851,23 @@
       </c>
       <c r="F15" t="s">
         <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
